--- a/images/20240422_Plate_001_mtORF_Sanger_Putnam.xlsx
+++ b/images/20240422_Plate_001_mtORF_Sanger_Putnam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hputnam/MyProjects/Putnam_Lab_Notebook/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264DC1C0-68BB-8142-A07F-F4A0E78C5D59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2187675-27CC-FC49-931E-6334305A9B3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{DA76E403-E45C-E840-8829-BED2D75470EB}"/>
+    <workbookView xWindow="2900" yWindow="500" windowWidth="28820" windowHeight="20620" xr2:uid="{DA76E403-E45C-E840-8829-BED2D75470EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="304">
   <si>
     <t>Sample ID</t>
   </si>
@@ -925,6 +925,24 @@
   </si>
   <si>
     <t>Original Sample ID</t>
+  </si>
+  <si>
+    <t>Haplotype 1</t>
+  </si>
+  <si>
+    <t>Haplotype 2, Haplotype 11</t>
+  </si>
+  <si>
+    <t>Haplotype 3</t>
+  </si>
+  <si>
+    <t>Haplotype 10</t>
+  </si>
+  <si>
+    <t>mtORF Result</t>
+  </si>
+  <si>
+    <t>Haplotype 8a</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,6 +1020,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1319,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E57A9E-24C3-0E42-BBAD-0683B2C971EA}">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1331,10 +1352,11 @@
     <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="24.5" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1359,8 +1381,11 @@
       <c r="H1" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1385,8 +1410,11 @@
       <c r="H2" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1411,8 +1439,11 @@
       <c r="H3" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1437,8 +1468,11 @@
       <c r="H4" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1463,8 +1497,11 @@
       <c r="H5" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1489,8 +1526,11 @@
       <c r="H6" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1556,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1542,7 +1582,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1568,7 +1608,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1633,11 @@
       <c r="H10" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1619,8 +1662,11 @@
       <c r="H11" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1645,8 +1691,11 @@
       <c r="H12" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1671,8 +1720,11 @@
       <c r="H13" s="6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1697,8 +1749,11 @@
       <c r="H14" s="6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1724,7 +1779,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1801,6 +1856,9 @@
       <c r="H18" s="6" t="s">
         <v>217</v>
       </c>
+      <c r="I18" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -1827,6 +1885,9 @@
       <c r="H19" s="6" t="s">
         <v>218</v>
       </c>
+      <c r="I19" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -1853,6 +1914,9 @@
       <c r="H20" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="I20" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -1879,6 +1943,9 @@
       <c r="H21" s="6" t="s">
         <v>220</v>
       </c>
+      <c r="I21" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1905,6 +1972,9 @@
       <c r="H22" s="6" t="s">
         <v>221</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -2009,7 +2079,9 @@
       <c r="H26" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2037,7 +2109,9 @@
       <c r="H27" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2065,7 +2139,9 @@
       <c r="H28" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2093,7 +2169,9 @@
       <c r="H29" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2121,7 +2199,9 @@
       <c r="H30" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2233,6 +2313,9 @@
       <c r="H34" s="6" t="s">
         <v>226</v>
       </c>
+      <c r="I34" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -2259,6 +2342,9 @@
       <c r="H35" s="6" t="s">
         <v>235</v>
       </c>
+      <c r="I35" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
@@ -2441,6 +2527,9 @@
       <c r="H42" s="6" t="s">
         <v>227</v>
       </c>
+      <c r="I42" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
@@ -2467,6 +2556,9 @@
       <c r="H43" s="6" t="s">
         <v>236</v>
       </c>
+      <c r="I43" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -2493,6 +2585,9 @@
       <c r="H44" s="6" t="s">
         <v>245</v>
       </c>
+      <c r="I44" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
@@ -2519,6 +2614,9 @@
       <c r="H45" s="6" t="s">
         <v>254</v>
       </c>
+      <c r="I45" s="2" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
@@ -2545,6 +2643,9 @@
       <c r="H46" s="6" t="s">
         <v>263</v>
       </c>
+      <c r="I46" s="2" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
@@ -2649,7 +2750,9 @@
       <c r="H50" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="I50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -2680,7 +2783,9 @@
       <c r="H51" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="I51" s="2"/>
+      <c r="I51" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -2711,7 +2816,9 @@
       <c r="H52" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="I52" s="2"/>
+      <c r="I52" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -2742,7 +2849,9 @@
       <c r="H53" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="I53" s="2"/>
+      <c r="I53" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -2773,7 +2882,9 @@
       <c r="H54" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="I54" s="2"/>
+      <c r="I54" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -2949,6 +3060,9 @@
       <c r="H60" s="6" t="s">
         <v>247</v>
       </c>
+      <c r="I60" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
@@ -2975,6 +3089,9 @@
       <c r="H61" s="6" t="s">
         <v>256</v>
       </c>
+      <c r="I61" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
@@ -3001,6 +3118,9 @@
       <c r="H62" s="6" t="s">
         <v>265</v>
       </c>
+      <c r="I62" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -3054,7 +3174,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
@@ -3080,7 +3200,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>131</v>
       </c>
@@ -3105,8 +3225,11 @@
       <c r="H66" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I66" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>133</v>
       </c>
@@ -3131,8 +3254,11 @@
       <c r="H67" s="6" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I67" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>135</v>
       </c>
@@ -3157,8 +3283,11 @@
       <c r="H68" s="6" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I68" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>137</v>
       </c>
@@ -3183,8 +3312,11 @@
       <c r="H69" s="6" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I69" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>139</v>
       </c>
@@ -3209,8 +3341,11 @@
       <c r="H70" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I70" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>141</v>
       </c>
@@ -3236,7 +3371,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>143</v>
       </c>
@@ -3262,7 +3397,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>145</v>
       </c>
@@ -3288,7 +3423,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>147</v>
       </c>
@@ -3314,7 +3449,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>149</v>
       </c>
@@ -3340,7 +3475,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>151</v>
       </c>
@@ -3366,7 +3501,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>153</v>
       </c>
@@ -3392,7 +3527,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>155</v>
       </c>
@@ -3418,7 +3553,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>157</v>
       </c>
@@ -3444,7 +3579,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>159</v>
       </c>
